--- a/Excel/Planilhas Principais/Geral/Testes Multivariados.xlsx
+++ b/Excel/Planilhas Principais/Geral/Testes Multivariados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bia99\OneDrive\Documents\Wikiaves\ProjWAV\Excel\Planilhas Principais\Geral\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89AC410-77A1-4C62-ABD1-74C5A84C8EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAC6CA1-7F39-4B88-8DD9-BE172787670F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{83EC7123-F002-4E82-A41A-2CF9807D44B0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1167" uniqueCount="30">
   <si>
     <t>WAV</t>
   </si>
@@ -113,9 +113,6 @@
     <t>n = 50</t>
   </si>
   <si>
-    <t>0.0001</t>
-  </si>
-  <si>
     <t>n=173</t>
   </si>
   <si>
@@ -123,120 +120,6 @@
   </si>
   <si>
     <t>n= 50</t>
-  </si>
-  <si>
-    <t>0.9566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.7561 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5688 </t>
-  </si>
-  <si>
-    <t>0.9675</t>
-  </si>
-  <si>
-    <t>0.9618</t>
-  </si>
-  <si>
-    <t>0.7733</t>
-  </si>
-  <si>
-    <t>0.2902</t>
-  </si>
-  <si>
-    <t>0.9580</t>
-  </si>
-  <si>
-    <t>0.9056</t>
-  </si>
-  <si>
-    <t>0.593464</t>
-  </si>
-  <si>
-    <t>0.007484</t>
-  </si>
-  <si>
-    <t>0.9932</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9852 </t>
-  </si>
-  <si>
-    <t>0.9999</t>
-  </si>
-  <si>
-    <t>0.9216</t>
-  </si>
-  <si>
-    <t>0.7430</t>
-  </si>
-  <si>
-    <t>0.0003706</t>
-  </si>
-  <si>
-    <t>0.9438</t>
-  </si>
-  <si>
-    <t>0.0879313</t>
-  </si>
-  <si>
-    <t>0.8445</t>
-  </si>
-  <si>
-    <t>0.8070</t>
-  </si>
-  <si>
-    <t>0.0011127</t>
-  </si>
-  <si>
-    <t>0.0003839</t>
-  </si>
-  <si>
-    <t>0.9781</t>
-  </si>
-  <si>
-    <t>0.9098</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.83066</t>
-  </si>
-  <si>
-    <t>0.03488</t>
-  </si>
-  <si>
-    <t>0.9376</t>
-  </si>
-  <si>
-    <t>0.11752</t>
-  </si>
-  <si>
-    <t>0.8998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02135 </t>
-  </si>
-  <si>
-    <t>0.9724</t>
-  </si>
-  <si>
-    <t>0.9041</t>
-  </si>
-  <si>
-    <t>0.68568</t>
-  </si>
-  <si>
-    <t>0.02637</t>
-  </si>
-  <si>
-    <t>0.9629</t>
-  </si>
-  <si>
-    <t>0.4508</t>
-  </si>
-  <si>
-    <t>0.7467</t>
   </si>
 </sst>
 </file>
@@ -339,30 +222,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -373,6 +232,30 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834E15A3-CB3B-4DE8-BB2D-3B4338125D36}">
   <dimension ref="A1:T33"/>
   <sheetViews>
-    <sheetView topLeftCell="J4" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17:S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,14 +593,14 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="28"/>
+      <c r="G2" s="30"/>
       <c r="L2" t="s">
         <v>0</v>
       </c>
@@ -745,10 +628,10 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
@@ -760,10 +643,10 @@
       <c r="M3" s="5">
         <v>69.013999999999996</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="Q3" t="s">
@@ -777,10 +660,10 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -798,8 +681,8 @@
       <c r="G4" s="5">
         <v>0.82240000000000002</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="31"/>
       <c r="K4" t="s">
         <v>8</v>
       </c>
@@ -809,8 +692,8 @@
       <c r="M4" s="15">
         <v>1E-4</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="31"/>
       <c r="Q4" t="s">
         <v>8</v>
       </c>
@@ -822,8 +705,8 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -839,8 +722,8 @@
       <c r="G5" s="14">
         <v>1E-4</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="32"/>
+      <c r="J5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="K5" t="s">
@@ -852,8 +735,8 @@
       <c r="M5" s="5">
         <v>3.004</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26" t="s">
+      <c r="O5" s="32"/>
+      <c r="P5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="Q5" t="s">
@@ -867,8 +750,8 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -886,8 +769,8 @@
       <c r="G6" s="5">
         <v>0.96709999999999996</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="31"/>
       <c r="K6" t="s">
         <v>8</v>
       </c>
@@ -897,8 +780,8 @@
       <c r="M6" s="14">
         <v>8.4860000000000005E-2</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="31"/>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
@@ -910,8 +793,8 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -927,8 +810,8 @@
       <c r="G7" s="14">
         <v>0.28989999999999999</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="32"/>
+      <c r="J7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="K7" t="s">
@@ -940,8 +823,8 @@
       <c r="M7" s="5">
         <v>0.3836</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Q7" t="s">
@@ -955,8 +838,8 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -974,8 +857,8 @@
       <c r="G8" s="5">
         <v>0.92530000000000001</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="31"/>
       <c r="K8" t="s">
         <v>8</v>
       </c>
@@ -985,8 +868,8 @@
       <c r="M8" s="14">
         <v>0.53649999999999998</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31"/>
       <c r="Q8" t="s">
         <v>8</v>
       </c>
@@ -998,8 +881,8 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -1015,8 +898,8 @@
       <c r="G9" s="14">
         <v>1.1339999999999999E-2</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="32"/>
+      <c r="J9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
@@ -1028,8 +911,8 @@
       <c r="M9" s="5">
         <v>2.9826000000000001</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26" t="s">
+      <c r="O9" s="32"/>
+      <c r="P9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Q9" t="s">
@@ -1043,8 +926,8 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
@@ -1062,8 +945,8 @@
       <c r="G10" s="5">
         <v>0.93430000000000002</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31"/>
       <c r="K10" t="s">
         <v>8</v>
       </c>
@@ -1073,8 +956,8 @@
       <c r="M10" s="14">
         <v>8.5970000000000005E-2</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31"/>
       <c r="Q10" t="s">
         <v>8</v>
       </c>
@@ -1086,8 +969,8 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -1103,8 +986,8 @@
       <c r="G11" s="14">
         <v>2.2280000000000001E-2</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="32"/>
+      <c r="J11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
@@ -1116,8 +999,8 @@
       <c r="M11" s="5">
         <v>4.5849000000000002</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26" t="s">
+      <c r="O11" s="32"/>
+      <c r="P11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="Q11" t="s">
@@ -1131,8 +1014,8 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -1150,8 +1033,8 @@
       <c r="G12" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31"/>
       <c r="K12" t="s">
         <v>8</v>
       </c>
@@ -1161,8 +1044,8 @@
       <c r="M12" s="14">
         <v>3.3669999999999999E-2</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
       <c r="Q12" t="s">
         <v>8</v>
       </c>
@@ -1174,8 +1057,8 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1213,14 +1096,14 @@
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28" t="s">
+      <c r="E17" s="30"/>
+      <c r="F17" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="G17" s="28"/>
+      <c r="G17" s="30"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
@@ -1255,10 +1138,10 @@
       <c r="G18" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="34" t="s">
         <v>10</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -1271,10 +1154,10 @@
         <v>0.33179999999999998</v>
       </c>
       <c r="N18" s="5"/>
-      <c r="O18" s="31" t="s">
+      <c r="O18" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P18" s="29" t="s">
+      <c r="P18" s="34" t="s">
         <v>10</v>
       </c>
       <c r="Q18" s="5" t="s">
@@ -1289,29 +1172,29 @@
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I19" s="25"/>
-      <c r="J19" s="29"/>
+      <c r="D19" s="5">
+        <v>0.95660000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.75609999999999999</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.84450000000000003</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="I19" s="32"/>
+      <c r="J19" s="34"/>
       <c r="K19" s="5" t="s">
         <v>8</v>
       </c>
@@ -1322,8 +1205,8 @@
         <v>0.56730000000000003</v>
       </c>
       <c r="N19" s="5"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="29"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="34"/>
       <c r="Q19" s="5" t="s">
         <v>8</v>
       </c>
@@ -1336,25 +1219,25 @@
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="26"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="31"/>
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="29" t="s">
+      <c r="D20" s="14">
+        <v>0.56879999999999997</v>
+      </c>
+      <c r="E20" s="14">
+        <v>1E-4</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1.1127000000000001E-3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>3.8390000000000001E-4</v>
+      </c>
+      <c r="I20" s="32"/>
+      <c r="J20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="K20" s="5" t="s">
@@ -1367,8 +1250,8 @@
         <v>1.0944</v>
       </c>
       <c r="N20" s="5"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="29" t="s">
+      <c r="O20" s="35"/>
+      <c r="P20" s="34" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="5" t="s">
@@ -1383,27 +1266,27 @@
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="26" t="s">
+      <c r="A21" s="32"/>
+      <c r="B21" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="29"/>
+      <c r="D21" s="5">
+        <v>0.96750000000000003</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.96179999999999999</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.97809999999999997</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.90980000000000005</v>
+      </c>
+      <c r="I21" s="32"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1414,8 +1297,8 @@
         <v>0.30070000000000002</v>
       </c>
       <c r="N21" s="5"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="29"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="34"/>
       <c r="Q21" s="5" t="s">
         <v>8</v>
       </c>
@@ -1428,25 +1311,25 @@
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="31"/>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="25"/>
-      <c r="J22" s="29" t="s">
+      <c r="D22" s="14">
+        <v>0.77329999999999999</v>
+      </c>
+      <c r="E22" s="14">
+        <v>0.29020000000000001</v>
+      </c>
+      <c r="F22" s="14">
+        <v>0.83065999999999995</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3.4880000000000001E-2</v>
+      </c>
+      <c r="I22" s="32"/>
+      <c r="J22" s="34" t="s">
         <v>12</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -1459,8 +1342,8 @@
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="N22" s="5"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="29" t="s">
+      <c r="O22" s="35"/>
+      <c r="P22" s="34" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="5" t="s">
@@ -1475,27 +1358,27 @@
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="32"/>
+      <c r="B23" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23" s="25"/>
-      <c r="J23" s="29"/>
+      <c r="D23" s="5">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.90559999999999996</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.93759999999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.89980000000000004</v>
+      </c>
+      <c r="I23" s="32"/>
+      <c r="J23" s="34"/>
       <c r="K23" s="5" t="s">
         <v>8</v>
       </c>
@@ -1506,8 +1389,8 @@
         <v>0.75980000000000003</v>
       </c>
       <c r="N23" s="5"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="29"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="34"/>
       <c r="Q23" s="5" t="s">
         <v>8</v>
       </c>
@@ -1520,25 +1403,25 @@
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="26"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="31"/>
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="29" t="s">
+      <c r="D24" s="14">
+        <v>0.59346399999999999</v>
+      </c>
+      <c r="E24" s="14">
+        <v>7.4840000000000002E-3</v>
+      </c>
+      <c r="F24" s="14">
+        <v>0.11752</v>
+      </c>
+      <c r="G24" s="14">
+        <v>2.1350000000000001E-2</v>
+      </c>
+      <c r="I24" s="32"/>
+      <c r="J24" s="34" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="5" t="s">
@@ -1551,8 +1434,8 @@
         <v>16.459</v>
       </c>
       <c r="N24" s="5"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="29" t="s">
+      <c r="O24" s="35"/>
+      <c r="P24" s="34" t="s">
         <v>13</v>
       </c>
       <c r="Q24" s="5" t="s">
@@ -1567,27 +1450,27 @@
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="32"/>
+      <c r="B25" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="29"/>
+      <c r="D25" s="5">
+        <v>0.99319999999999997</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.98519999999999996</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="I25" s="32"/>
+      <c r="J25" s="34"/>
       <c r="K25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1598,8 +1481,8 @@
         <v>1.819E-4</v>
       </c>
       <c r="N25" s="5"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="29"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="34"/>
       <c r="Q25" s="5" t="s">
         <v>8</v>
       </c>
@@ -1612,25 +1495,25 @@
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="26"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="31"/>
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="29" t="s">
+      <c r="D26" s="14">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="E26" s="14">
+        <v>0.92159999999999997</v>
+      </c>
+      <c r="F26" s="14">
+        <v>0.68567999999999996</v>
+      </c>
+      <c r="G26" s="14">
+        <v>2.6370000000000001E-2</v>
+      </c>
+      <c r="I26" s="32"/>
+      <c r="J26" s="34" t="s">
         <v>14</v>
       </c>
       <c r="K26" s="5" t="s">
@@ -1643,8 +1526,8 @@
         <v>1.0338000000000001</v>
       </c>
       <c r="N26" s="5"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="29" t="s">
+      <c r="O26" s="35"/>
+      <c r="P26" s="34" t="s">
         <v>14</v>
       </c>
       <c r="Q26" s="5" t="s">
@@ -1659,27 +1542,27 @@
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="32"/>
+      <c r="B27" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="25"/>
-      <c r="J27" s="29"/>
+      <c r="D27" s="5">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.94379999999999997</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.96289999999999998</v>
+      </c>
+      <c r="G27" s="5">
+        <v>0.45079999999999998</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="34"/>
       <c r="K27" s="5" t="s">
         <v>8</v>
       </c>
@@ -1690,8 +1573,8 @@
         <v>0.31440000000000001</v>
       </c>
       <c r="N27" s="5"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="29"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="34"/>
       <c r="Q27" s="5" t="s">
         <v>8</v>
       </c>
@@ -1704,22 +1587,22 @@
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="26"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="31"/>
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>27</v>
+      <c r="D28" s="14">
+        <v>3.7060000000000001E-4</v>
+      </c>
+      <c r="E28" s="14">
+        <v>8.7931300000000004E-2</v>
+      </c>
+      <c r="F28" s="14">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="G28" s="14">
+        <v>1E-4</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1758,27 +1641,27 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="I3:I12"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A19:A28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="P22:P23"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="P24:P25"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="P26:P27"/>
+    <mergeCell ref="B27:B28"/>
     <mergeCell ref="F33:G33"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="O3:O12"/>
@@ -1793,20 +1676,20 @@
     <mergeCell ref="J18:J19"/>
     <mergeCell ref="O18:O27"/>
     <mergeCell ref="P18:P19"/>
-    <mergeCell ref="A19:A28"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="P22:P23"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="P24:P25"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="P26:P27"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="I3:I12"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -1816,34 +1699,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA343499-D983-431F-BD7D-B5BCDA78007F}">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="J76" sqref="J75:K76"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
     <col min="18" max="18" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
       <c r="N2" t="s">
         <v>0</v>
       </c>
@@ -1877,10 +1760,10 @@
       <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
@@ -1892,10 +1775,10 @@
       <c r="O3" s="5">
         <v>36.542000000000002</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="S3" t="s">
@@ -1909,10 +1792,10 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -1936,8 +1819,8 @@
       <c r="I4" s="5">
         <v>0.82240000000000002</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="26"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="31"/>
       <c r="M4" t="s">
         <v>8</v>
       </c>
@@ -1947,8 +1830,8 @@
       <c r="O4" s="14">
         <v>1E-4</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="31"/>
       <c r="S4" t="s">
         <v>8</v>
       </c>
@@ -1960,8 +1843,8 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -1983,8 +1866,8 @@
       <c r="I5" s="14">
         <v>1E-4</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="M5" t="s">
@@ -1996,8 +1879,8 @@
       <c r="O5" s="5">
         <v>3.2565</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="26" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="S5" t="s">
@@ -2011,8 +1894,8 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -2036,8 +1919,8 @@
       <c r="I6" s="5">
         <v>0.96709999999999996</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="31"/>
       <c r="M6" t="s">
         <v>8</v>
       </c>
@@ -2047,8 +1930,8 @@
       <c r="O6" s="14">
         <v>4.0939999999999997E-2</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="31"/>
       <c r="S6" t="s">
         <v>8</v>
       </c>
@@ -2060,8 +1943,8 @@
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -2083,8 +1966,8 @@
       <c r="I7" s="14">
         <v>0.28989999999999999</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="M7" t="s">
@@ -2096,8 +1979,8 @@
       <c r="O7" s="5">
         <v>3.1768000000000001</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26" t="s">
+      <c r="Q7" s="32"/>
+      <c r="R7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="S7" t="s">
@@ -2111,8 +1994,8 @@
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -2136,8 +2019,8 @@
       <c r="I8" s="5">
         <v>0.92530000000000001</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="31"/>
       <c r="M8" t="s">
         <v>8</v>
       </c>
@@ -2147,8 +2030,8 @@
       <c r="O8" s="14">
         <v>4.4209999999999999E-2</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="26"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="31"/>
       <c r="S8" t="s">
         <v>8</v>
       </c>
@@ -2160,8 +2043,8 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -2183,8 +2066,8 @@
       <c r="I9" s="14">
         <v>1.1339999999999999E-2</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26" t="s">
+      <c r="K9" s="32"/>
+      <c r="L9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="M9" t="s">
@@ -2196,8 +2079,8 @@
       <c r="O9" s="5">
         <v>3.8403999999999998</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26" t="s">
+      <c r="Q9" s="32"/>
+      <c r="R9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="S9" t="s">
@@ -2211,8 +2094,8 @@
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
@@ -2236,8 +2119,8 @@
       <c r="I10" s="5">
         <v>0.93430000000000002</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="31"/>
       <c r="M10" t="s">
         <v>8</v>
       </c>
@@ -2247,8 +2130,8 @@
       <c r="O10" s="14">
         <v>2.3369999999999998E-2</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="26"/>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="31"/>
       <c r="S10" t="s">
         <v>8</v>
       </c>
@@ -2260,8 +2143,8 @@
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -2283,8 +2166,8 @@
       <c r="I11" s="14">
         <v>2.2280000000000001E-2</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26" t="s">
+      <c r="K11" s="32"/>
+      <c r="L11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="M11" t="s">
@@ -2296,8 +2179,8 @@
       <c r="O11" s="5">
         <v>2.8445</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26" t="s">
+      <c r="Q11" s="32"/>
+      <c r="R11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="S11" t="s">
@@ -2311,8 +2194,8 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -2336,8 +2219,8 @@
       <c r="I12" s="5">
         <v>0.94199999999999995</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="31"/>
       <c r="M12" t="s">
         <v>8</v>
       </c>
@@ -2347,8 +2230,8 @@
       <c r="O12" s="14">
         <v>6.0929999999999998E-2</v>
       </c>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="26"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="31"/>
       <c r="S12" t="s">
         <v>8</v>
       </c>
@@ -2360,8 +2243,8 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -2959,16 +2842,16 @@
       <c r="A41" s="23"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="32" t="s">
+      <c r="D41" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32" t="s">
+      <c r="E41" s="36"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -3013,10 +2896,10 @@
         <v>15</v>
       </c>
       <c r="J42" s="5"/>
-      <c r="K42" s="31" t="s">
+      <c r="K42" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="29" t="s">
+      <c r="L42" s="34" t="s">
         <v>10</v>
       </c>
       <c r="M42" s="5" t="s">
@@ -3029,10 +2912,10 @@
         <v>10.85</v>
       </c>
       <c r="P42" s="5"/>
-      <c r="Q42" s="31" t="s">
+      <c r="Q42" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="R42" s="29" t="s">
+      <c r="R42" s="34" t="s">
         <v>10</v>
       </c>
       <c r="S42" s="5" t="s">
@@ -3046,10 +2929,10 @@
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="29" t="s">
+      <c r="B43" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -3074,8 +2957,8 @@
         <v>0.84450000000000003</v>
       </c>
       <c r="J43" s="5"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="29"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="34"/>
       <c r="M43" s="5" t="s">
         <v>8</v>
       </c>
@@ -3086,8 +2969,8 @@
         <v>1.3359999999999999E-4</v>
       </c>
       <c r="P43" s="5"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="29"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="34"/>
       <c r="S43" s="5" t="s">
         <v>8</v>
       </c>
@@ -3099,8 +2982,8 @@
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="30"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="34"/>
       <c r="C44" s="5" t="s">
         <v>8</v>
       </c>
@@ -3123,8 +3006,8 @@
         <v>1.1130000000000001E-3</v>
       </c>
       <c r="J44" s="5"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="29" t="s">
+      <c r="K44" s="35"/>
+      <c r="L44" s="34" t="s">
         <v>11</v>
       </c>
       <c r="M44" s="5" t="s">
@@ -3137,8 +3020,8 @@
         <v>0.76270000000000004</v>
       </c>
       <c r="P44" s="5"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="29" t="s">
+      <c r="Q44" s="35"/>
+      <c r="R44" s="34" t="s">
         <v>11</v>
       </c>
       <c r="S44" s="5" t="s">
@@ -3152,8 +3035,8 @@
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
-      <c r="B45" s="29" t="s">
+      <c r="A45" s="37"/>
+      <c r="B45" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="5" t="s">
@@ -3178,8 +3061,8 @@
         <v>0.97809999999999997</v>
       </c>
       <c r="J45" s="5"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="29"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="34"/>
       <c r="M45" s="5" t="s">
         <v>8</v>
       </c>
@@ -3190,8 +3073,8 @@
         <v>0.47210000000000002</v>
       </c>
       <c r="P45" s="5"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="29"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="34"/>
       <c r="S45" s="5" t="s">
         <v>8</v>
       </c>
@@ -3203,8 +3086,8 @@
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
-      <c r="B46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
@@ -3227,8 +3110,8 @@
         <v>0.83069999999999999</v>
       </c>
       <c r="J46" s="5"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="29" t="s">
+      <c r="K46" s="35"/>
+      <c r="L46" s="34" t="s">
         <v>12</v>
       </c>
       <c r="M46" s="5" t="s">
@@ -3241,8 +3124,8 @@
         <v>0.24909999999999999</v>
       </c>
       <c r="P46" s="5"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="29" t="s">
+      <c r="Q46" s="35"/>
+      <c r="R46" s="34" t="s">
         <v>12</v>
       </c>
       <c r="S46" s="5" t="s">
@@ -3256,8 +3139,8 @@
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
-      <c r="B47" s="29" t="s">
+      <c r="A47" s="37"/>
+      <c r="B47" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -3282,8 +3165,8 @@
         <v>0.93759999999999999</v>
       </c>
       <c r="J47" s="5"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="29"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="34"/>
       <c r="M47" s="5" t="s">
         <v>8</v>
       </c>
@@ -3294,8 +3177,8 @@
         <v>0.78049999999999997</v>
       </c>
       <c r="P47" s="5"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="29"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="34"/>
       <c r="S47" s="5" t="s">
         <v>8</v>
       </c>
@@ -3307,8 +3190,8 @@
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
-      <c r="B48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="34"/>
       <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
@@ -3331,8 +3214,8 @@
         <v>0.11752</v>
       </c>
       <c r="J48" s="5"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="29" t="s">
+      <c r="K48" s="35"/>
+      <c r="L48" s="34" t="s">
         <v>13</v>
       </c>
       <c r="M48" s="5" t="s">
@@ -3345,8 +3228,8 @@
         <v>4.0134999999999996</v>
       </c>
       <c r="P48" s="5"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="29" t="s">
+      <c r="Q48" s="35"/>
+      <c r="R48" s="34" t="s">
         <v>13</v>
       </c>
       <c r="S48" s="5" t="s">
@@ -3360,8 +3243,8 @@
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
-      <c r="B49" s="29" t="s">
+      <c r="A49" s="37"/>
+      <c r="B49" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -3386,8 +3269,8 @@
         <v>0.97240000000000004</v>
       </c>
       <c r="J49" s="5"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="29"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="34"/>
       <c r="M49" s="5" t="s">
         <v>8</v>
       </c>
@@ -3398,8 +3281,8 @@
         <v>2.4590000000000001E-2</v>
       </c>
       <c r="P49" s="5"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="29"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="34"/>
       <c r="S49" s="5" t="s">
         <v>8</v>
       </c>
@@ -3411,8 +3294,8 @@
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="30"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -3435,8 +3318,8 @@
         <v>0.68569999999999998</v>
       </c>
       <c r="J50" s="5"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="29" t="s">
+      <c r="K50" s="35"/>
+      <c r="L50" s="34" t="s">
         <v>14</v>
       </c>
       <c r="M50" s="5" t="s">
@@ -3449,8 +3332,8 @@
         <v>0.55689999999999995</v>
       </c>
       <c r="P50" s="5"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="29" t="s">
+      <c r="Q50" s="35"/>
+      <c r="R50" s="34" t="s">
         <v>14</v>
       </c>
       <c r="S50" s="5" t="s">
@@ -3464,8 +3347,8 @@
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="29" t="s">
+      <c r="A51" s="37"/>
+      <c r="B51" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -3490,8 +3373,8 @@
         <v>0.96289999999999998</v>
       </c>
       <c r="J51" s="5"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="29"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="34"/>
       <c r="M51" s="5" t="s">
         <v>8</v>
       </c>
@@ -3502,8 +3385,8 @@
         <v>0.57669999999999999</v>
       </c>
       <c r="P51" s="5"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="29"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="34"/>
       <c r="S51" s="5" t="s">
         <v>8</v>
       </c>
@@ -3515,8 +3398,8 @@
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="30"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
@@ -4343,31 +4226,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="R11:R12"/>
-    <mergeCell ref="K3:K12"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="Q3:Q12"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K42:K51"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="Q42:Q51"/>
     <mergeCell ref="R42:R43"/>
     <mergeCell ref="A43:A52"/>
     <mergeCell ref="B43:B44"/>
@@ -4383,6 +4241,31 @@
     <mergeCell ref="L50:L51"/>
     <mergeCell ref="R50:R51"/>
     <mergeCell ref="B51:B52"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K42:K51"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="Q42:Q51"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="R11:R12"/>
+    <mergeCell ref="K3:K12"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="Q3:Q12"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -4392,8 +4275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE36D6E0-220F-4842-A6C9-608E03157E91}">
   <dimension ref="A1:Y90"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView topLeftCell="A46" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61:N89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4403,23 +4286,23 @@
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
       <c r="Q2" t="s">
         <v>0</v>
       </c>
@@ -4459,10 +4342,10 @@
       <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="P3" t="s">
@@ -4474,10 +4357,10 @@
       <c r="R3" s="5">
         <v>14.256</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="26" t="s">
+      <c r="U3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="V3" t="s">
@@ -4491,10 +4374,10 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -4524,8 +4407,8 @@
       <c r="K4" s="5">
         <v>0.66359999999999997</v>
       </c>
-      <c r="N4" s="25"/>
-      <c r="O4" s="26"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="31"/>
       <c r="P4" t="s">
         <v>8</v>
       </c>
@@ -4535,8 +4418,8 @@
       <c r="R4" s="14">
         <v>1E-4</v>
       </c>
-      <c r="T4" s="25"/>
-      <c r="U4" s="26"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="31"/>
       <c r="V4" t="s">
         <v>8</v>
       </c>
@@ -4548,8 +4431,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -4577,8 +4460,8 @@
       <c r="K5" s="14">
         <v>3.2029999999999998E-4</v>
       </c>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26" t="s">
+      <c r="N5" s="32"/>
+      <c r="O5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="P5" t="s">
@@ -4590,8 +4473,8 @@
       <c r="R5" s="5">
         <v>2.1638000000000002</v>
       </c>
-      <c r="T5" s="25"/>
-      <c r="U5" s="26" t="s">
+      <c r="T5" s="32"/>
+      <c r="U5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="V5" t="s">
@@ -4605,8 +4488,8 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -4636,8 +4519,8 @@
       <c r="K6" s="5">
         <v>0.92359999999999998</v>
       </c>
-      <c r="N6" s="25"/>
-      <c r="O6" s="26"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="31"/>
       <c r="P6" t="s">
         <v>8</v>
       </c>
@@ -4647,8 +4530,8 @@
       <c r="R6" s="14">
         <v>9.4159999999999994E-2</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="26"/>
+      <c r="T6" s="32"/>
+      <c r="U6" s="31"/>
       <c r="V6" t="s">
         <v>8</v>
       </c>
@@ -4660,8 +4543,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -4689,8 +4572,8 @@
       <c r="K7" s="14">
         <v>0.38839000000000001</v>
       </c>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="P7" t="s">
@@ -4702,8 +4585,8 @@
       <c r="R7" s="5">
         <v>2.1444999999999999</v>
       </c>
-      <c r="T7" s="25"/>
-      <c r="U7" s="26" t="s">
+      <c r="T7" s="32"/>
+      <c r="U7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="V7" t="s">
@@ -4717,8 +4600,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -4748,8 +4631,8 @@
       <c r="K8" s="5">
         <v>0.88919999999999999</v>
       </c>
-      <c r="N8" s="25"/>
-      <c r="O8" s="26"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="31"/>
       <c r="P8" t="s">
         <v>8</v>
       </c>
@@ -4759,8 +4642,8 @@
       <c r="R8" s="14">
         <v>9.6500000000000002E-2</v>
       </c>
-      <c r="T8" s="25"/>
-      <c r="U8" s="26"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="31"/>
       <c r="V8" t="s">
         <v>8</v>
       </c>
@@ -4772,8 +4655,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -4801,8 +4684,8 @@
       <c r="K9" s="14">
         <v>0.16602</v>
       </c>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="P9" t="s">
@@ -4814,8 +4697,8 @@
       <c r="R9" s="5">
         <v>4.9447000000000001</v>
       </c>
-      <c r="T9" s="25"/>
-      <c r="U9" s="26" t="s">
+      <c r="T9" s="32"/>
+      <c r="U9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="V9" t="s">
@@ -4829,8 +4712,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
@@ -4860,8 +4743,8 @@
       <c r="K10" s="5">
         <v>0.87090000000000001</v>
       </c>
-      <c r="N10" s="25"/>
-      <c r="O10" s="26"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="31"/>
       <c r="P10" t="s">
         <v>8</v>
       </c>
@@ -4871,8 +4754,8 @@
       <c r="R10" s="14">
         <v>2.5709999999999999E-3</v>
       </c>
-      <c r="T10" s="25"/>
-      <c r="U10" s="26"/>
+      <c r="T10" s="32"/>
+      <c r="U10" s="31"/>
       <c r="V10" t="s">
         <v>8</v>
       </c>
@@ -4884,8 +4767,8 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -4913,8 +4796,8 @@
       <c r="K11" s="14">
         <v>0.10248</v>
       </c>
-      <c r="N11" s="25"/>
-      <c r="O11" s="26" t="s">
+      <c r="N11" s="32"/>
+      <c r="O11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="P11" t="s">
@@ -4926,8 +4809,8 @@
       <c r="R11" s="5">
         <v>2.6069</v>
       </c>
-      <c r="T11" s="25"/>
-      <c r="U11" s="26" t="s">
+      <c r="T11" s="32"/>
+      <c r="U11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="V11" t="s">
@@ -4941,8 +4824,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -4972,8 +4855,8 @@
       <c r="K12" s="5">
         <v>0.88119999999999998</v>
       </c>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="31"/>
       <c r="P12" t="s">
         <v>8</v>
       </c>
@@ -4983,8 +4866,8 @@
       <c r="R12" s="14">
         <v>5.3400000000000003E-2</v>
       </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="26"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="31"/>
       <c r="V12" t="s">
         <v>8</v>
       </c>
@@ -4996,8 +4879,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -5907,7 +5790,7 @@
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -5926,18 +5809,18 @@
       <c r="A47" s="1"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="32" t="s">
+      <c r="D47" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="32" t="s">
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="I47" s="32"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -5991,10 +5874,10 @@
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="5"/>
-      <c r="N48" s="31" t="s">
+      <c r="N48" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="29" t="s">
+      <c r="O48" s="34" t="s">
         <v>10</v>
       </c>
       <c r="P48" s="5" t="s">
@@ -6007,10 +5890,10 @@
         <v>6.63</v>
       </c>
       <c r="S48" s="5"/>
-      <c r="T48" s="31" t="s">
+      <c r="T48" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="U48" s="29" t="s">
+      <c r="U48" s="34" t="s">
         <v>10</v>
       </c>
       <c r="V48" s="5" t="s">
@@ -6025,10 +5908,10 @@
       <c r="Y48" s="5"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
+      <c r="A49" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="29" t="s">
+      <c r="B49" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="5" t="s">
@@ -6060,8 +5943,8 @@
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="5"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="29"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="34"/>
       <c r="P49" s="5" t="s">
         <v>8</v>
       </c>
@@ -6072,8 +5955,8 @@
         <v>8.1360000000000004E-4</v>
       </c>
       <c r="S49" s="5"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="29"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="34"/>
       <c r="V49" s="5" t="s">
         <v>8</v>
       </c>
@@ -6086,8 +5969,8 @@
       <c r="Y49" s="5"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="5" t="s">
         <v>8</v>
       </c>
@@ -6117,8 +6000,8 @@
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="29" t="s">
+      <c r="N50" s="35"/>
+      <c r="O50" s="34" t="s">
         <v>11</v>
       </c>
       <c r="P50" s="5" t="s">
@@ -6131,8 +6014,8 @@
         <v>1.0733999999999999</v>
       </c>
       <c r="S50" s="5"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="29" t="s">
+      <c r="T50" s="35"/>
+      <c r="U50" s="34" t="s">
         <v>11</v>
       </c>
       <c r="V50" s="5" t="s">
@@ -6147,8 +6030,8 @@
       <c r="Y50" s="5"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="29" t="s">
+      <c r="A51" s="32"/>
+      <c r="B51" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C51" s="5" t="s">
@@ -6180,8 +6063,8 @@
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="29"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="34"/>
       <c r="P51" s="5" t="s">
         <v>8</v>
       </c>
@@ -6192,8 +6075,8 @@
         <v>0.36969999999999997</v>
       </c>
       <c r="S51" s="5"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="29"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="34"/>
       <c r="V51" s="5" t="s">
         <v>8</v>
       </c>
@@ -6206,8 +6089,8 @@
       <c r="Y51" s="5"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="34"/>
       <c r="C52" s="5" t="s">
         <v>8</v>
       </c>
@@ -6237,8 +6120,8 @@
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="29" t="s">
+      <c r="N52" s="35"/>
+      <c r="O52" s="34" t="s">
         <v>12</v>
       </c>
       <c r="P52" s="5" t="s">
@@ -6251,8 +6134,8 @@
         <v>0.20749999999999999</v>
       </c>
       <c r="S52" s="5"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="29" t="s">
+      <c r="T52" s="35"/>
+      <c r="U52" s="34" t="s">
         <v>12</v>
       </c>
       <c r="V52" s="5" t="s">
@@ -6267,8 +6150,8 @@
       <c r="Y52" s="5"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="29" t="s">
+      <c r="A53" s="32"/>
+      <c r="B53" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C53" s="5" t="s">
@@ -6300,8 +6183,8 @@
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="29"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="34"/>
       <c r="P53" s="5" t="s">
         <v>8</v>
       </c>
@@ -6312,8 +6195,8 @@
         <v>0.89070000000000005</v>
       </c>
       <c r="S53" s="5"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="29"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="34"/>
       <c r="V53" s="5" t="s">
         <v>8</v>
       </c>
@@ -6326,8 +6209,8 @@
       <c r="Y53" s="5"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="29"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="5" t="s">
         <v>8</v>
       </c>
@@ -6357,8 +6240,8 @@
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="29" t="s">
+      <c r="N54" s="35"/>
+      <c r="O54" s="34" t="s">
         <v>13</v>
       </c>
       <c r="P54" s="5" t="s">
@@ -6371,8 +6254,8 @@
         <v>3.9889999999999999</v>
       </c>
       <c r="S54" s="5"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="29" t="s">
+      <c r="T54" s="35"/>
+      <c r="U54" s="34" t="s">
         <v>13</v>
       </c>
       <c r="V54" s="5" t="s">
@@ -6387,8 +6270,8 @@
       <c r="Y54" s="5"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="29" t="s">
+      <c r="A55" s="32"/>
+      <c r="B55" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -6420,8 +6303,8 @@
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="29"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="34"/>
       <c r="P55" s="5" t="s">
         <v>8</v>
       </c>
@@ -6432,8 +6315,8 @@
         <v>1.316E-2</v>
       </c>
       <c r="S55" s="5"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="29"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="34"/>
       <c r="V55" s="5" t="s">
         <v>8</v>
       </c>
@@ -6446,8 +6329,8 @@
       <c r="Y55" s="5"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="29"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="5" t="s">
         <v>8</v>
       </c>
@@ -6477,8 +6360,8 @@
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="29" t="s">
+      <c r="N56" s="35"/>
+      <c r="O56" s="34" t="s">
         <v>14</v>
       </c>
       <c r="P56" s="5" t="s">
@@ -6491,8 +6374,8 @@
         <v>0.22850000000000001</v>
       </c>
       <c r="S56" s="5"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="29" t="s">
+      <c r="T56" s="35"/>
+      <c r="U56" s="34" t="s">
         <v>14</v>
       </c>
       <c r="V56" s="5" t="s">
@@ -6507,8 +6390,8 @@
       <c r="Y56" s="5"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="29" t="s">
+      <c r="A57" s="32"/>
+      <c r="B57" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="5" t="s">
@@ -6540,8 +6423,8 @@
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="5"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="29"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="34"/>
       <c r="P57" s="5" t="s">
         <v>8</v>
       </c>
@@ -6552,8 +6435,8 @@
         <v>0.876</v>
       </c>
       <c r="S57" s="5"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="29"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="34"/>
       <c r="V57" s="5" t="s">
         <v>8</v>
       </c>
@@ -6566,8 +6449,8 @@
       <c r="Y57" s="5"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="29"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="34"/>
       <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
@@ -6679,7 +6562,7 @@
         <v>16</v>
       </c>
       <c r="I61" s="5"/>
-      <c r="J61" s="33"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="13" t="s">
         <v>2</v>
       </c>
@@ -7432,7 +7315,7 @@
       <c r="J80" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="K80" s="34"/>
+      <c r="K80" s="26"/>
       <c r="L80" s="14">
         <v>1E-4</v>
       </c>
@@ -7474,10 +7357,10 @@
       <c r="J81" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="34">
+      <c r="K81" s="26">
         <v>-1.4466113</v>
       </c>
-      <c r="L81" s="35"/>
+      <c r="L81" s="27"/>
       <c r="M81" s="14">
         <v>0.20449999999999999</v>
       </c>
@@ -7516,14 +7399,14 @@
       <c r="J82" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="K82" s="34">
+      <c r="K82" s="26">
         <v>-0.87452319999999995</v>
       </c>
-      <c r="L82" s="34">
+      <c r="L82" s="26">
         <v>0.57208809999999999</v>
       </c>
-      <c r="M82" s="34"/>
-      <c r="N82" s="35">
+      <c r="M82" s="26"/>
+      <c r="N82" s="27">
         <v>0.37980000000000003</v>
       </c>
       <c r="O82" s="5"/>
@@ -7558,16 +7441,16 @@
       <c r="J83" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="K83" s="34">
+      <c r="K83" s="26">
         <v>-0.45441920000000002</v>
       </c>
-      <c r="L83" s="34">
+      <c r="L83" s="26">
         <v>0.99219210000000002</v>
       </c>
-      <c r="M83" s="34">
+      <c r="M83" s="26">
         <v>0.42010399999999998</v>
       </c>
-      <c r="N83" s="34"/>
+      <c r="N83" s="26"/>
       <c r="O83" s="5"/>
       <c r="P83" s="5"/>
       <c r="Q83" s="5"/>
@@ -7844,31 +7727,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="T3:T12"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="U7:U8"/>
-    <mergeCell ref="O9:O10"/>
-    <mergeCell ref="U9:U10"/>
-    <mergeCell ref="D47:G47"/>
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="N48:N57"/>
-    <mergeCell ref="O48:O49"/>
-    <mergeCell ref="T48:T57"/>
     <mergeCell ref="U48:U49"/>
     <mergeCell ref="A49:A58"/>
     <mergeCell ref="B49:B50"/>
@@ -7884,6 +7742,31 @@
     <mergeCell ref="O56:O57"/>
     <mergeCell ref="U56:U57"/>
     <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="N48:N57"/>
+    <mergeCell ref="O48:O49"/>
+    <mergeCell ref="T48:T57"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="T3:T12"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="U7:U8"/>
+    <mergeCell ref="O9:O10"/>
+    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -7893,8 +7776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66D3F2E9-63EE-434C-8331-18E87D89891E}">
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G88" sqref="G87:H88"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:O96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7911,20 +7794,20 @@
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28" t="s">
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="R2" s="3" t="s">
         <v>0</v>
       </c>
@@ -7970,10 +7853,10 @@
       <c r="M3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="26" t="s">
+      <c r="P3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="Q3" t="s">
@@ -7985,10 +7868,10 @@
       <c r="S3" s="5">
         <v>11.771000000000001</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="26" t="s">
+      <c r="V3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="W3" t="s">
@@ -8002,10 +7885,10 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
@@ -8041,8 +7924,8 @@
       <c r="M4" s="5">
         <v>0.83050000000000002</v>
       </c>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="31"/>
       <c r="Q4" t="s">
         <v>8</v>
       </c>
@@ -8052,8 +7935,8 @@
       <c r="S4" s="15">
         <v>1E-4</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="V4" s="26"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="31"/>
       <c r="W4" t="s">
         <v>8</v>
       </c>
@@ -8065,8 +7948,8 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -8100,8 +7983,8 @@
       <c r="M5" s="14">
         <v>0.1403404</v>
       </c>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26" t="s">
+      <c r="O5" s="32"/>
+      <c r="P5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="Q5" t="s">
@@ -8113,8 +7996,8 @@
       <c r="S5" s="5">
         <v>1.7873000000000001</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="26" t="s">
+      <c r="U5" s="32"/>
+      <c r="V5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="W5" t="s">
@@ -8128,8 +8011,8 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26" t="s">
+      <c r="A6" s="32"/>
+      <c r="B6" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -8165,8 +8048,8 @@
       <c r="M6" s="5">
         <v>0.97309999999999997</v>
       </c>
-      <c r="O6" s="25"/>
-      <c r="P6" s="26"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="31"/>
       <c r="Q6" t="s">
         <v>8</v>
       </c>
@@ -8176,8 +8059,8 @@
       <c r="S6" s="14">
         <v>0.13370000000000001</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="V6" s="26"/>
+      <c r="U6" s="32"/>
+      <c r="V6" s="31"/>
       <c r="W6" t="s">
         <v>8</v>
       </c>
@@ -8189,8 +8072,8 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" t="s">
         <v>8</v>
       </c>
@@ -8224,8 +8107,8 @@
       <c r="M7" s="14">
         <v>0.89497000000000004</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="26" t="s">
+      <c r="O7" s="32"/>
+      <c r="P7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Q7" t="s">
@@ -8237,8 +8120,8 @@
       <c r="S7" s="5">
         <v>1.9867999999999999</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="26" t="s">
+      <c r="U7" s="32"/>
+      <c r="V7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="W7" t="s">
@@ -8252,8 +8135,8 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="32"/>
+      <c r="B8" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
@@ -8289,8 +8172,8 @@
       <c r="M8" s="5">
         <v>0.87709999999999999</v>
       </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="26"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31"/>
       <c r="Q8" t="s">
         <v>8</v>
       </c>
@@ -8300,8 +8183,8 @@
       <c r="S8" s="14">
         <v>9.8750000000000004E-2</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="26"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="31"/>
       <c r="W8" t="s">
         <v>8</v>
       </c>
@@ -8313,8 +8196,8 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
@@ -8348,8 +8231,8 @@
       <c r="M9" s="14">
         <v>0.29635</v>
       </c>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26" t="s">
+      <c r="O9" s="32"/>
+      <c r="P9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Q9" t="s">
@@ -8361,8 +8244,8 @@
       <c r="S9" s="5">
         <v>3.9998</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="26" t="s">
+      <c r="U9" s="32"/>
+      <c r="V9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="W9" t="s">
@@ -8376,8 +8259,8 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26" t="s">
+      <c r="A10" s="32"/>
+      <c r="B10" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
@@ -8413,8 +8296,8 @@
       <c r="M10" s="5">
         <v>0.87890000000000001</v>
       </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31"/>
       <c r="Q10" t="s">
         <v>8</v>
       </c>
@@ -8424,8 +8307,8 @@
       <c r="S10" s="14">
         <v>3.9880000000000002E-3</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26"/>
+      <c r="U10" s="32"/>
+      <c r="V10" s="31"/>
       <c r="W10" t="s">
         <v>8</v>
       </c>
@@ -8437,8 +8320,8 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="31"/>
       <c r="C11" t="s">
         <v>8</v>
       </c>
@@ -8472,8 +8355,8 @@
       <c r="M11" s="14">
         <v>0.30436999999999997</v>
       </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26" t="s">
+      <c r="O11" s="32"/>
+      <c r="P11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="Q11" t="s">
@@ -8485,8 +8368,8 @@
       <c r="S11" s="5">
         <v>2.1215999999999999</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="26" t="s">
+      <c r="U11" s="32"/>
+      <c r="V11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="W11" t="s">
@@ -8500,8 +8383,8 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26" t="s">
+      <c r="A12" s="32"/>
+      <c r="B12" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C12" t="s">
@@ -8537,8 +8420,8 @@
       <c r="M12" s="5">
         <v>0.85140000000000005</v>
       </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
       <c r="Q12" t="s">
         <v>8</v>
       </c>
@@ -8548,8 +8431,8 @@
       <c r="S12" s="14">
         <v>8.0280000000000004E-2</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="26"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="31"/>
       <c r="W12" t="s">
         <v>8</v>
       </c>
@@ -8561,8 +8444,8 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="31"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -9687,31 +9570,31 @@
       <c r="O48" s="5"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="36"/>
+      <c r="A50" s="28"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="32" t="s">
+      <c r="D50" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="32"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32" t="s">
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
-      <c r="R50" s="37" t="s">
+      <c r="R50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S50" s="37" t="s">
+      <c r="S50" s="29" t="s">
         <v>1</v>
       </c>
       <c r="T50" s="5"/>
@@ -9727,7 +9610,7 @@
       <c r="Z50" s="5"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="36"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
       <c r="D51" s="13" t="s">
@@ -9761,10 +9644,10 @@
         <v>17</v>
       </c>
       <c r="N51" s="5"/>
-      <c r="O51" s="31" t="s">
+      <c r="O51" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="P51" s="29" t="s">
+      <c r="P51" s="34" t="s">
         <v>10</v>
       </c>
       <c r="Q51" s="5" t="s">
@@ -9777,10 +9660,10 @@
         <v>1.6798</v>
       </c>
       <c r="T51" s="5"/>
-      <c r="U51" s="31" t="s">
+      <c r="U51" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="V51" s="29" t="s">
+      <c r="V51" s="34" t="s">
         <v>10</v>
       </c>
       <c r="W51" s="5" t="s">
@@ -9795,10 +9678,10 @@
       <c r="Z51" s="5"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="29" t="s">
+      <c r="B52" s="34" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="5" t="s">
@@ -9835,8 +9718,8 @@
         <v>0.66879999999999995</v>
       </c>
       <c r="N52" s="5"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="29"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="34"/>
       <c r="Q52" s="5" t="s">
         <v>8</v>
       </c>
@@ -9847,8 +9730,8 @@
         <v>0.17130000000000001</v>
       </c>
       <c r="T52" s="5"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="29"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="34"/>
       <c r="W52" s="5" t="s">
         <v>8</v>
       </c>
@@ -9861,8 +9744,8 @@
       <c r="Z52" s="5"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="31"/>
-      <c r="B53" s="29"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="5" t="s">
         <v>8</v>
       </c>
@@ -9897,8 +9780,8 @@
         <v>1.863E-4</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="29" t="s">
+      <c r="O53" s="35"/>
+      <c r="P53" s="34" t="s">
         <v>11</v>
       </c>
       <c r="Q53" s="5" t="s">
@@ -9911,8 +9794,8 @@
         <v>0.91290000000000004</v>
       </c>
       <c r="T53" s="5"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="29" t="s">
+      <c r="U53" s="35"/>
+      <c r="V53" s="34" t="s">
         <v>11</v>
       </c>
       <c r="W53" s="5" t="s">
@@ -9927,8 +9810,8 @@
       <c r="Z53" s="5"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="31"/>
-      <c r="B54" s="29" t="s">
+      <c r="A54" s="35"/>
+      <c r="B54" s="34" t="s">
         <v>11</v>
       </c>
       <c r="C54" s="5" t="s">
@@ -9965,8 +9848,8 @@
         <v>0.94940000000000002</v>
       </c>
       <c r="N54" s="5"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="29"/>
+      <c r="O54" s="35"/>
+      <c r="P54" s="34"/>
       <c r="Q54" s="5" t="s">
         <v>8</v>
       </c>
@@ -9977,8 +9860,8 @@
         <v>0.4647</v>
       </c>
       <c r="T54" s="5"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="29"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="34"/>
       <c r="W54" s="5" t="s">
         <v>8</v>
       </c>
@@ -9991,8 +9874,8 @@
       <c r="Z54" s="5"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="31"/>
-      <c r="B55" s="29"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="5" t="s">
         <v>8</v>
       </c>
@@ -10027,8 +9910,8 @@
         <v>0.63648000000000005</v>
       </c>
       <c r="N55" s="5"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="29" t="s">
+      <c r="O55" s="35"/>
+      <c r="P55" s="34" t="s">
         <v>12</v>
       </c>
       <c r="Q55" s="5" t="s">
@@ -10041,8 +9924,8 @@
         <v>3.7067999999999999</v>
       </c>
       <c r="T55" s="5"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="29" t="s">
+      <c r="U55" s="35"/>
+      <c r="V55" s="34" t="s">
         <v>12</v>
       </c>
       <c r="W55" s="5" t="s">
@@ -10057,8 +9940,8 @@
       <c r="Z55" s="5"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="31"/>
-      <c r="B56" s="29" t="s">
+      <c r="A56" s="35"/>
+      <c r="B56" s="34" t="s">
         <v>12</v>
       </c>
       <c r="C56" s="5" t="s">
@@ -10095,8 +9978,8 @@
         <v>0.92779999999999996</v>
       </c>
       <c r="N56" s="5"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="29"/>
+      <c r="O56" s="35"/>
+      <c r="P56" s="34"/>
       <c r="Q56" s="5" t="s">
         <v>8</v>
       </c>
@@ -10107,8 +9990,8 @@
         <v>1.0840000000000001E-2</v>
       </c>
       <c r="T56" s="5"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="29"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="34"/>
       <c r="W56" s="5" t="s">
         <v>8</v>
       </c>
@@ -10121,8 +10004,8 @@
       <c r="Z56" s="5"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="31"/>
-      <c r="B57" s="29"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="34"/>
       <c r="C57" s="5" t="s">
         <v>8</v>
       </c>
@@ -10157,8 +10040,8 @@
         <v>0.38902999999999999</v>
       </c>
       <c r="N57" s="5"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="29" t="s">
+      <c r="O57" s="35"/>
+      <c r="P57" s="34" t="s">
         <v>13</v>
       </c>
       <c r="Q57" s="5" t="s">
@@ -10171,8 +10054,8 @@
         <v>4.1891999999999996</v>
       </c>
       <c r="T57" s="5"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="29" t="s">
+      <c r="U57" s="35"/>
+      <c r="V57" s="34" t="s">
         <v>13</v>
       </c>
       <c r="W57" s="5" t="s">
@@ -10187,8 +10070,8 @@
       <c r="Z57" s="5"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="31"/>
-      <c r="B58" s="29" t="s">
+      <c r="A58" s="35"/>
+      <c r="B58" s="34" t="s">
         <v>13</v>
       </c>
       <c r="C58" s="5" t="s">
@@ -10225,8 +10108,8 @@
         <v>0.9516</v>
       </c>
       <c r="N58" s="5"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="29"/>
+      <c r="O58" s="35"/>
+      <c r="P58" s="34"/>
       <c r="Q58" s="5" t="s">
         <v>8</v>
       </c>
@@ -10237,8 +10120,8 @@
         <v>5.7340000000000004E-3</v>
       </c>
       <c r="T58" s="5"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="29"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="34"/>
       <c r="W58" s="5" t="s">
         <v>8</v>
       </c>
@@ -10251,8 +10134,8 @@
       <c r="Z58" s="5"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="31"/>
-      <c r="B59" s="29"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="34"/>
       <c r="C59" s="5" t="s">
         <v>8</v>
       </c>
@@ -10287,8 +10170,8 @@
         <v>0.66379999999999995</v>
       </c>
       <c r="N59" s="5"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="29" t="s">
+      <c r="O59" s="35"/>
+      <c r="P59" s="34" t="s">
         <v>14</v>
       </c>
       <c r="Q59" s="5" t="s">
@@ -10301,8 +10184,8 @@
         <v>0.2727</v>
       </c>
       <c r="T59" s="5"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="29" t="s">
+      <c r="U59" s="35"/>
+      <c r="V59" s="34" t="s">
         <v>14</v>
       </c>
       <c r="W59" s="5" t="s">
@@ -10317,8 +10200,8 @@
       <c r="Z59" s="5"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="31"/>
-      <c r="B60" s="29" t="s">
+      <c r="A60" s="35"/>
+      <c r="B60" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C60" s="5" t="s">
@@ -10355,8 +10238,8 @@
         <v>0.9647</v>
       </c>
       <c r="N60" s="5"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="29"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="34"/>
       <c r="Q60" s="5" t="s">
         <v>8</v>
       </c>
@@ -10367,8 +10250,8 @@
         <v>0.89410000000000001</v>
       </c>
       <c r="T60" s="5"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="29"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="34"/>
       <c r="W60" s="5" t="s">
         <v>8</v>
       </c>
@@ -10381,8 +10264,8 @@
       <c r="Z60" s="5"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="31"/>
-      <c r="B61" s="29"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="34"/>
       <c r="C61" s="5" t="s">
         <v>8</v>
       </c>
@@ -12096,31 +11979,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="P11:P12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="O3:O12"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="U3:U12"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="V5:V6"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="V7:V8"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="D50:H50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="O51:O60"/>
-    <mergeCell ref="P51:P52"/>
-    <mergeCell ref="U51:U60"/>
     <mergeCell ref="V51:V52"/>
     <mergeCell ref="A52:A61"/>
     <mergeCell ref="B52:B53"/>
@@ -12136,6 +11994,31 @@
     <mergeCell ref="P59:P60"/>
     <mergeCell ref="V59:V60"/>
     <mergeCell ref="B60:B61"/>
+    <mergeCell ref="D50:H50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="O51:O60"/>
+    <mergeCell ref="P51:P52"/>
+    <mergeCell ref="U51:U60"/>
+    <mergeCell ref="P11:P12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="U3:U12"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="P5:P6"/>
+    <mergeCell ref="V5:V6"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="V7:V8"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -12146,7 +12029,7 @@
   <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D14" sqref="D14:R52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12156,22 +12039,22 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
       <c r="T1" t="s">
         <v>0</v>
       </c>
@@ -12223,10 +12106,10 @@
       <c r="O2" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="31" t="s">
         <v>10</v>
       </c>
       <c r="S2" t="s">
@@ -12238,10 +12121,10 @@
       <c r="U2" s="5">
         <v>9.5945</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="31" t="s">
         <v>10</v>
       </c>
       <c r="Y2" t="s">
@@ -12255,10 +12138,10 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
@@ -12300,8 +12183,8 @@
       <c r="O3" s="5">
         <v>0.83050000000000002</v>
       </c>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="31"/>
       <c r="S3" t="s">
         <v>8</v>
       </c>
@@ -12311,8 +12194,8 @@
       <c r="U3" s="15">
         <v>1E-4</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="26"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="31"/>
       <c r="Y3" t="s">
         <v>8</v>
       </c>
@@ -12324,8 +12207,8 @@
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -12365,8 +12248,8 @@
       <c r="O4" s="14">
         <v>0.1403404</v>
       </c>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="26" t="s">
+      <c r="Q4" s="32"/>
+      <c r="R4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="S4" t="s">
@@ -12378,8 +12261,8 @@
       <c r="U4" s="5">
         <v>1.7624</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="26" t="s">
+      <c r="W4" s="32"/>
+      <c r="X4" s="31" t="s">
         <v>11</v>
       </c>
       <c r="Y4" t="s">
@@ -12393,8 +12276,8 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="26" t="s">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
@@ -12436,8 +12319,8 @@
       <c r="O5" s="5">
         <v>0.97309999999999997</v>
       </c>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="26"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="31"/>
       <c r="S5" t="s">
         <v>8</v>
       </c>
@@ -12447,8 +12330,8 @@
       <c r="U5" s="14">
         <v>0.1232</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="31"/>
       <c r="Y5" t="s">
         <v>8</v>
       </c>
@@ -12460,8 +12343,8 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" t="s">
         <v>8</v>
       </c>
@@ -12501,8 +12384,8 @@
       <c r="O6" s="14">
         <v>0.89497000000000004</v>
       </c>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26" t="s">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="S6" t="s">
@@ -12514,8 +12397,8 @@
       <c r="U6" s="5">
         <v>1.5720000000000001</v>
       </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="26" t="s">
+      <c r="W6" s="32"/>
+      <c r="X6" s="31" t="s">
         <v>12</v>
       </c>
       <c r="Y6" t="s">
@@ -12529,8 +12412,8 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="26" t="s">
+      <c r="A7" s="32"/>
+      <c r="B7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -12572,8 +12455,8 @@
       <c r="O7" s="5">
         <v>0.87709999999999999</v>
       </c>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="26"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="31"/>
       <c r="S7" t="s">
         <v>8</v>
       </c>
@@ -12583,8 +12466,8 @@
       <c r="U7" s="14">
         <v>0.1706</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
+      <c r="W7" s="32"/>
+      <c r="X7" s="31"/>
       <c r="Y7" t="s">
         <v>8</v>
       </c>
@@ -12596,8 +12479,8 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="31"/>
       <c r="C8" t="s">
         <v>8</v>
       </c>
@@ -12637,8 +12520,8 @@
       <c r="O8" s="14">
         <v>0.29635</v>
       </c>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="26" t="s">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="S8" t="s">
@@ -12650,8 +12533,8 @@
       <c r="U8" s="5">
         <v>3.2242000000000002</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26" t="s">
+      <c r="W8" s="32"/>
+      <c r="X8" s="31" t="s">
         <v>13</v>
       </c>
       <c r="Y8" t="s">
@@ -12665,8 +12548,8 @@
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26" t="s">
+      <c r="A9" s="32"/>
+      <c r="B9" s="31" t="s">
         <v>13</v>
       </c>
       <c r="C9" t="s">
@@ -12708,8 +12591,8 @@
       <c r="O9" s="5">
         <v>0.97770000000000001</v>
       </c>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="26"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="31"/>
       <c r="S9" t="s">
         <v>8</v>
       </c>
@@ -12719,8 +12602,8 @@
       <c r="U9" s="14">
         <v>8.3350000000000004E-3</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="31"/>
       <c r="Y9" t="s">
         <v>8</v>
       </c>
@@ -12732,8 +12615,8 @@
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="31"/>
       <c r="C10" t="s">
         <v>8</v>
       </c>
@@ -12773,8 +12656,8 @@
       <c r="O10" s="14">
         <v>0.48788999999999999</v>
       </c>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="26" t="s">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="31" t="s">
         <v>14</v>
       </c>
       <c r="S10" t="s">
@@ -12786,8 +12669,8 @@
       <c r="U10" s="5">
         <v>2.0154000000000001</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26" t="s">
+      <c r="W10" s="32"/>
+      <c r="X10" s="31" t="s">
         <v>14</v>
       </c>
       <c r="Y10" t="s">
@@ -12801,8 +12684,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -12844,8 +12727,8 @@
       <c r="O11" s="5">
         <v>0.85140000000000005</v>
       </c>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="26"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="31"/>
       <c r="S11" t="s">
         <v>8</v>
       </c>
@@ -12855,8 +12738,8 @@
       <c r="U11" s="14">
         <v>7.8960000000000002E-2</v>
       </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="31"/>
       <c r="Y11" t="s">
         <v>8</v>
       </c>
@@ -12868,8 +12751,8 @@
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="26"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="31"/>
       <c r="C12" t="s">
         <v>8</v>
       </c>
@@ -14397,14 +14280,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J1:O1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="X10:X11"/>
     <mergeCell ref="Q2:Q11"/>
@@ -14417,6 +14292,14 @@
     <mergeCell ref="X6:X7"/>
     <mergeCell ref="R8:R9"/>
     <mergeCell ref="X8:X9"/>
+    <mergeCell ref="J1:O1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
